--- a/biology/Botanique/Liriope_spicata/Liriope_spicata.xlsx
+++ b/biology/Botanique/Liriope_spicata/Liriope_spicata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liriope spicata est une espèce de plantes monocotylédones originaires d'Asie tempérée de la famille des Liliacées ou Asparagacées selon la classification.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante herbacée rhizomateuse, stolonnifère.
 Ses feuilles, lancéolées, ont de vingt à soixante centimètres de long sur trois à dix millimètres de large. Elles sont persistantes.
@@ -526,7 +540,7 @@
 Liriope spicata var. latifolia Franch. (1884) : voir Liriope muscari (Decne.) L.H.Bailey
 Liriope spicata var. minor (Maxim.) C.H.Wright (1903) : voir Liriope minor (Maxim.) Makino
 Liriope spicata var. prolifera Y.T.Ma (1985)
-Liriope spicata a comme nombre de base 18 chromosomes : des spécimens sont diploïdes (36 chromosomes)[1], tétraploïdes (72 chromosomes)[2] ou hexaploïdes (108 chromosomes)[3].
+Liriope spicata a comme nombre de base 18 chromosomes : des spécimens sont diploïdes (36 chromosomes), tétraploïdes (72 chromosomes) ou hexaploïdes (108 chromosomes).
 </t>
         </is>
       </c>
@@ -555,7 +569,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Liriope spicata est originaire de Chine (Anhui, Fujian, Gansu, Guangdong, Guangxi, Guizhou, Hainan, Hebei, Henan, Hubei, Hunan, Jiangsu, Jiangxi, Shaanxi, Shandong, Shanxi, Sichuan, Taiwan, Yunnan, Zhejiang), de Corée, du Japon et du Viêt Nam.
 Cette espèce est maintenant diffusée comme plante ornementale dans l'ensemble des pays à climat tempéré.
@@ -588,7 +604,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1787, Carl Peter Thunberg décrit cette plante dans le genre Convallaria : Convallaria spicata Thunb.
 En 1790, João de Loureiro la place dans le genre Liriope : Liriope spicata (Thunb.) Lour., comme plante type du genre qu'il crée à cette occasion.
@@ -629,9 +647,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liriope spicata est utilisée traditionnellement en médecine chinoise comme plante aphrodisiaque et stimulante par consommation des rhizomes[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liriope spicata est utilisée traditionnellement en médecine chinoise comme plante aphrodisiaque et stimulante par consommation des rhizomes.
 Le principal usage actuel est ornemental, souvent comme plante couvre-sol, en raison de sa robustesse, de sa floraison estivale et tardive et du couvert permanent que cette espèce procure.
 Quelques variétés horticoles sont disponibles :
 Liriope spicata 'Moneymaker'
